--- a/세종학당/근태/최문성_파견교원 통상 주 근무시간표.xlsx
+++ b/세종학당/근태/최문성_파견교원 통상 주 근무시간표.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Documents\Workspace_MS\세종학당\근태\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA704D6-E6B4-4683-922D-E3E232F99682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BDD1-09ED-46CF-B85D-93AF49F45D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33615" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33960" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="날짜 기입" sheetId="2" r:id="rId1"/>
+    <sheet name="2월~3월" sheetId="2" r:id="rId1"/>
     <sheet name="변동 시 시트 추가" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>월요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,11 +160,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.02.27 ~ 2024.05.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 40시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 8시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.27 ~ 03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최문성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,21 +667,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +677,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,7 +1009,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1010,18 +1022,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="21"/>
@@ -1033,11 +1045,15 @@
       <c r="G2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="I2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1">
@@ -1080,19 +1096,19 @@
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="26" t="s">
@@ -1102,7 +1118,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
@@ -1112,22 +1128,24 @@
       <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="8">
@@ -1136,19 +1154,19 @@
       <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="26" t="s">
@@ -1168,19 +1186,19 @@
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="36" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="26" t="s">
@@ -1198,26 +1216,26 @@
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="12"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -1294,18 +1312,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="21"/>
@@ -1444,26 +1462,26 @@
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="12"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">

--- a/세종학당/근태/최문성_파견교원 통상 주 근무시간표.xlsx
+++ b/세종학당/근태/최문성_파견교원 통상 주 근무시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Documents\Workspace_MS\세종학당\근태\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BDD1-09ED-46CF-B85D-93AF49F45D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD5256-6896-4EC1-B0D5-C70DCF871D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34305" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2월~3월" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>월요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,35 +148,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:00~19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 40시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총 8시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.02.27 ~ 03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최문성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.27 ~ 2024.03.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 0시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +997,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1046,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -1099,14 +1087,14 @@
       <c r="C4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>31</v>
+      <c r="D4" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>31</v>
+      <c r="F4" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>24</v>
@@ -1118,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
@@ -1129,13 +1117,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="34"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="26" t="s">
         <v>22</v>
@@ -1157,14 +1141,14 @@
       <c r="C6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>33</v>
+      <c r="D6" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>33</v>
+      <c r="F6" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>25</v>
@@ -1217,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
